--- a/6_publication/1_toPSAil/2_data/1.0_kayser_cpu_time_per_cycle/numerical_results_2022_12_20_v1.xlsx
+++ b/6_publication/1_toPSAil/2_data/1.0_kayser_cpu_time_per_cycle/numerical_results_2022_12_20_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\2_data\1.0_kayser_cpu_time_per_cycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE1A98-4DCB-4148-B806-45183DA8488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1DFE93-1FEB-43D1-9F30-2D65F3F67875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CBE9BE91-2CB8-D547-A061-9FE88AEC8E91}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BCF49C-0ACE-9046-AC77-2EE3F03FD831}">
   <dimension ref="B4:DG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
